--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H2">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J2">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>228.8978944480696</v>
+        <v>2.092492038126555</v>
       </c>
       <c r="R2">
-        <v>228.8978944480696</v>
+        <v>18.832428343139</v>
       </c>
       <c r="S2">
-        <v>0.005247142986297664</v>
+        <v>4.209032403056309E-05</v>
       </c>
       <c r="T2">
-        <v>0.005247142986297664</v>
+        <v>4.20903240305631E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H3">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J3">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>939.7245597006466</v>
+        <v>8.657273182700445</v>
       </c>
       <c r="R3">
-        <v>939.7245597006466</v>
+        <v>77.915458644304</v>
       </c>
       <c r="S3">
-        <v>0.02154178457768026</v>
+        <v>0.0001741404157538436</v>
       </c>
       <c r="T3">
-        <v>0.02154178457768026</v>
+        <v>0.0001741404157538436</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H4">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J4">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>2498.307067564306</v>
+        <v>22.84622948298</v>
       </c>
       <c r="R4">
-        <v>2498.307067564306</v>
+        <v>205.61606534682</v>
       </c>
       <c r="S4">
-        <v>0.05726996501561086</v>
+        <v>0.0004595502321127941</v>
       </c>
       <c r="T4">
-        <v>0.05726996501561086</v>
+        <v>0.0004595502321127942</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H5">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J5">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>2487.643269443582</v>
+        <v>26.36909421420811</v>
       </c>
       <c r="R5">
-        <v>2487.643269443582</v>
+        <v>237.321847927873</v>
       </c>
       <c r="S5">
-        <v>0.05702551334142063</v>
+        <v>0.0005304123980620563</v>
       </c>
       <c r="T5">
-        <v>0.05702551334142063</v>
+        <v>0.0005304123980620563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>10.2455132384667</v>
+        <v>0.09364566666666667</v>
       </c>
       <c r="H6">
-        <v>10.2455132384667</v>
+        <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.1547575361443317</v>
+        <v>0.00132949638239575</v>
       </c>
       <c r="J6">
-        <v>0.1547575361443317</v>
+        <v>0.001329496382395751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>596.4675875625503</v>
+        <v>6.129926004205444</v>
       </c>
       <c r="R6">
-        <v>596.4675875625503</v>
+        <v>55.169334037849</v>
       </c>
       <c r="S6">
-        <v>0.01367313022332224</v>
+        <v>0.0001233030124364934</v>
       </c>
       <c r="T6">
-        <v>0.01367313022332224</v>
+        <v>0.0001233030124364934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H7">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J7">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>676.9893567728128</v>
+        <v>229.4232799214349</v>
       </c>
       <c r="R7">
-        <v>676.9893567728128</v>
+        <v>2064.809519292914</v>
       </c>
       <c r="S7">
-        <v>0.01551897173957858</v>
+        <v>0.004614832465835046</v>
       </c>
       <c r="T7">
-        <v>0.01551897173957858</v>
+        <v>0.004614832465835047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H8">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J8">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>2779.333233926656</v>
+        <v>949.1935799809671</v>
       </c>
       <c r="R8">
-        <v>2779.333233926656</v>
+        <v>8542.742219828704</v>
       </c>
       <c r="S8">
-        <v>0.06371207092204534</v>
+        <v>0.01909295931414808</v>
       </c>
       <c r="T8">
-        <v>0.06371207092204534</v>
+        <v>0.01909295931414808</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H9">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J9">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>7389.003287992436</v>
+        <v>2504.88738132348</v>
       </c>
       <c r="R9">
-        <v>7389.003287992436</v>
+        <v>22543.98643191132</v>
       </c>
       <c r="S9">
-        <v>0.1693818847561132</v>
+        <v>0.05038562614286867</v>
       </c>
       <c r="T9">
-        <v>0.1693818847561132</v>
+        <v>0.05038562614286868</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H10">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J10">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>7357.463994684774</v>
+        <v>2891.1384000282</v>
       </c>
       <c r="R10">
-        <v>7357.463994684774</v>
+        <v>26020.2456002538</v>
       </c>
       <c r="S10">
-        <v>0.1686588934762191</v>
+        <v>0.05815503708360148</v>
       </c>
       <c r="T10">
-        <v>0.1686588934762191</v>
+        <v>0.05815503708360148</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.3021722145658</v>
+        <v>10.26742066666667</v>
       </c>
       <c r="H11">
-        <v>30.3021722145658</v>
+        <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282607</v>
       </c>
       <c r="J11">
-        <v>0.4577115272410929</v>
+        <v>0.1457675418282608</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>1764.114997271911</v>
+        <v>672.092272723597</v>
       </c>
       <c r="R11">
-        <v>1764.114997271911</v>
+        <v>6048.830454512374</v>
       </c>
       <c r="S11">
-        <v>0.04043970634713671</v>
+        <v>0.01351908682180748</v>
       </c>
       <c r="T11">
-        <v>0.04043970634713671</v>
+        <v>0.01351908682180748</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H12">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J12">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>567.4287115955649</v>
+        <v>679.4947830528773</v>
       </c>
       <c r="R12">
-        <v>567.4287115955649</v>
+        <v>6115.453047475897</v>
       </c>
       <c r="S12">
-        <v>0.01300745728330879</v>
+        <v>0.01366798777470092</v>
       </c>
       <c r="T12">
-        <v>0.01300745728330879</v>
+        <v>0.01366798777470093</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H13">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J13">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>2329.539541861629</v>
+        <v>2811.275673180243</v>
       </c>
       <c r="R13">
-        <v>2329.539541861629</v>
+        <v>25301.48105862219</v>
       </c>
       <c r="S13">
-        <v>0.05340122108967441</v>
+        <v>0.05654860418457626</v>
       </c>
       <c r="T13">
-        <v>0.05340122108967441</v>
+        <v>0.05654860418457627</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H14">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J14">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>6193.203148226091</v>
+        <v>7418.85439144254</v>
       </c>
       <c r="R14">
-        <v>6193.203148226091</v>
+        <v>66769.68952298287</v>
       </c>
       <c r="S14">
-        <v>0.1419699492661944</v>
+        <v>0.1492297125063166</v>
       </c>
       <c r="T14">
-        <v>0.1419699492661944</v>
+        <v>0.1492297125063167</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H15">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J15">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>6166.768019834247</v>
+        <v>8562.83399215522</v>
       </c>
       <c r="R15">
-        <v>6166.768019834247</v>
+        <v>77065.50592939698</v>
       </c>
       <c r="S15">
-        <v>0.1413639633576407</v>
+        <v>0.1722407783555616</v>
       </c>
       <c r="T15">
-        <v>0.1413639633576407</v>
+        <v>0.1722407783555616</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.3982169235611</v>
+        <v>30.40955033333333</v>
       </c>
       <c r="H16">
-        <v>25.3982169235611</v>
+        <v>91.228651</v>
       </c>
       <c r="I16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283866</v>
       </c>
       <c r="J16">
-        <v>0.3836377331291033</v>
+        <v>0.4317272608283867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>1478.61925744327</v>
+        <v>1990.570412916358</v>
       </c>
       <c r="R16">
-        <v>1478.61925744327</v>
+        <v>17915.13371624723</v>
       </c>
       <c r="S16">
-        <v>0.03389514213228512</v>
+        <v>0.0400401780072312</v>
       </c>
       <c r="T16">
-        <v>0.03389514213228512</v>
+        <v>0.04004017800723121</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H17">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I17">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J17">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>5.758337220174672</v>
+        <v>656.3297907944343</v>
       </c>
       <c r="R17">
-        <v>5.758337220174672</v>
+        <v>5906.96811714991</v>
       </c>
       <c r="S17">
-        <v>0.0001320012961693328</v>
+        <v>0.01320202565271536</v>
       </c>
       <c r="T17">
-        <v>0.0001320012961693328</v>
+        <v>0.01320202565271536</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H18">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I18">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J18">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>23.64045733965521</v>
+        <v>2715.435085688196</v>
       </c>
       <c r="R18">
-        <v>23.64045733965521</v>
+        <v>24438.91577119376</v>
       </c>
       <c r="S18">
-        <v>0.0005419222410138126</v>
+        <v>0.05462077778938887</v>
       </c>
       <c r="T18">
-        <v>0.0005419222410138126</v>
+        <v>0.05462077778938887</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H19">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I19">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J19">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>62.84939671144409</v>
+        <v>7165.9345621362</v>
       </c>
       <c r="R19">
-        <v>62.84939671144409</v>
+        <v>64493.41105922579</v>
       </c>
       <c r="S19">
-        <v>0.001440728722921089</v>
+        <v>0.1441422486711904</v>
       </c>
       <c r="T19">
-        <v>0.001440728722921089</v>
+        <v>0.1441422486711904</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.257744267867173</v>
+        <v>29.37284333333333</v>
       </c>
       <c r="H20">
-        <v>0.257744267867173</v>
+        <v>88.11852999999999</v>
       </c>
       <c r="I20">
-        <v>0.003893203485472025</v>
+        <v>0.417009033544999</v>
       </c>
       <c r="J20">
-        <v>0.003893203485472025</v>
+        <v>0.4170090335449991</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>62.58112973688299</v>
+        <v>8270.914189257819</v>
       </c>
       <c r="R20">
-        <v>62.58112973688299</v>
+        <v>74438.22770332036</v>
       </c>
       <c r="S20">
-        <v>0.00143457910246513</v>
+        <v>0.1663688329091691</v>
       </c>
       <c r="T20">
-        <v>0.00143457910246513</v>
+        <v>0.1663688329091691</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>29.37284333333333</v>
+      </c>
+      <c r="H21">
+        <v>88.11852999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.417009033544999</v>
+      </c>
+      <c r="J21">
+        <v>0.4170090335449991</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N21">
+        <v>196.376177</v>
+      </c>
+      <c r="O21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q21">
+        <v>1922.708893806645</v>
+      </c>
+      <c r="R21">
+        <v>17304.38004425981</v>
+      </c>
+      <c r="S21">
+        <v>0.03867514852253535</v>
+      </c>
+      <c r="T21">
+        <v>0.03867514852253535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J22">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.34478233333333</v>
+      </c>
+      <c r="N22">
+        <v>67.034347</v>
+      </c>
+      <c r="O22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="P22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="Q22">
+        <v>6.557910580923778</v>
+      </c>
+      <c r="R22">
+        <v>59.021195228314</v>
+      </c>
+      <c r="S22">
+        <v>0.000131911890838863</v>
+      </c>
+      <c r="T22">
+        <v>0.000131911890838863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J23">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N23">
+        <v>277.341392</v>
+      </c>
+      <c r="O23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="P23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="Q23">
+        <v>27.13206185367823</v>
+      </c>
+      <c r="R23">
+        <v>244.188556683104</v>
+      </c>
+      <c r="S23">
+        <v>0.0005457594362275552</v>
+      </c>
+      <c r="T23">
+        <v>0.0005457594362275552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J24">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>243.96462</v>
+      </c>
+      <c r="N24">
+        <v>731.89386</v>
+      </c>
+      <c r="O24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="P24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="Q24">
+        <v>71.60052575148001</v>
+      </c>
+      <c r="R24">
+        <v>644.4047317633201</v>
+      </c>
+      <c r="S24">
+        <v>0.001440239329338944</v>
+      </c>
+      <c r="T24">
+        <v>0.001440239329338944</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="H21">
-        <v>0.257744267867173</v>
-      </c>
-      <c r="I21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="J21">
-        <v>0.003893203485472025</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="N21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="O21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="P21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="Q21">
-        <v>15.00521233876381</v>
-      </c>
-      <c r="R21">
-        <v>15.00521233876381</v>
-      </c>
-      <c r="S21">
-        <v>0.0003439721229026609</v>
-      </c>
-      <c r="T21">
-        <v>0.0003439721229026609</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J25">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="N25">
+        <v>844.751129</v>
+      </c>
+      <c r="O25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="P25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="Q25">
+        <v>82.64125206017756</v>
+      </c>
+      <c r="R25">
+        <v>743.771268541598</v>
+      </c>
+      <c r="S25">
+        <v>0.001662322730087223</v>
+      </c>
+      <c r="T25">
+        <v>0.001662322730087223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2934873333333334</v>
+      </c>
+      <c r="H26">
+        <v>0.8804620000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.004166667415957767</v>
+      </c>
+      <c r="J26">
+        <v>0.004166667415957768</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N26">
+        <v>196.376177</v>
+      </c>
+      <c r="O26">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P26">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q26">
+        <v>19.21130683930823</v>
+      </c>
+      <c r="R26">
+        <v>172.901761553774</v>
+      </c>
+      <c r="S26">
+        <v>0.000386434029465182</v>
+      </c>
+      <c r="T26">
+        <v>0.000386434029465182</v>
       </c>
     </row>
   </sheetData>
